--- a/testreport/2 Ambivalence/bi_catcat_sigtest/x2_Ambivalence_Do_you_consent_to_the_following__BY_x1_sex.xlsx
+++ b/testreport/2 Ambivalence/bi_catcat_sigtest/x2_Ambivalence_Do_you_consent_to_the_following__BY_x1_sex.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,20 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>by_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -390,19 +395,24 @@
           <t>Agreement #1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E2">
-        <v>0.862</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -411,19 +421,24 @@
           <t>Agreement #2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>0.6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.416</v>
       </c>
     </row>
     <row r="4">
@@ -432,19 +447,24 @@
           <t>Agreement #3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E4">
-        <v>0.47</v>
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -453,19 +473,24 @@
           <t>Agreement #4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E5">
-        <v>0.42</v>
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.966</v>
       </c>
     </row>
     <row r="6">
@@ -474,19 +499,24 @@
           <t>Agreement #5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E6">
-        <v>0.012</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.496</v>
       </c>
     </row>
     <row r="7">
@@ -495,19 +525,24 @@
           <t>Agreement #6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E7">
-        <v>0.438</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.664</v>
       </c>
     </row>
     <row r="8">
@@ -516,19 +551,24 @@
           <t>Agreement #9</t>
         </is>
       </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.6919999999999999</v>
       </c>
     </row>
   </sheetData>
